--- a/Aguas y Aguas Residuales/14.6.xlsx
+++ b/Aguas y Aguas Residuales/14.6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Aguas y Aguas Residuales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7738FC-EDF4-4D50-826F-CF531A6BB1E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D1217D-D64B-43E1-9805-E340C43BA182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A9B1E1D3-68BE-4CFA-884F-889296C0F3CD}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Hoja4" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_2" localSheetId="0" hidden="1">Superficie_lagos!$A$1:$M$166</definedName>
+    <definedName name="DatosExternos_2" localSheetId="0" hidden="1">Superficie_lagos!$A$1:$N$166</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="267">
   <si>
     <t>Región</t>
   </si>
@@ -841,6 +841,9 @@
   </si>
   <si>
     <t>Superficie (Ha) de lagunas por territorio. Las lagunas son depósitos agua de poca profundidad.</t>
+  </si>
+  <si>
+    <t>Id clasificación</t>
   </si>
 </sst>
 </file>
@@ -904,15 +907,15 @@
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="7"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -959,8 +962,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_2" connectionId="1" xr16:uid="{34E1DABA-CDB9-4654-89CC-1963BC29A79C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="28">
-    <queryTableFields count="13">
+  <queryTableRefresh nextId="29">
+    <queryTableFields count="14">
       <queryTableField id="1" name="Región" tableColumnId="1"/>
       <queryTableField id="24" dataBound="0" tableColumnId="10"/>
       <queryTableField id="23" dataBound="0" tableColumnId="4"/>
@@ -971,6 +974,7 @@
       <queryTableField id="8" name="Categoría" tableColumnId="8"/>
       <queryTableField id="25" dataBound="0" tableColumnId="11"/>
       <queryTableField id="26" dataBound="0" tableColumnId="12"/>
+      <queryTableField id="28" dataBound="0" tableColumnId="3"/>
       <queryTableField id="27" dataBound="0" tableColumnId="14"/>
       <queryTableField id="9" dataBound="0" tableColumnId="9"/>
       <queryTableField id="13" name="Definición" tableColumnId="13"/>
@@ -998,9 +1002,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F099829E-E33F-463C-AA2D-9EA75C138637}" name="Superficie_lagos" displayName="Superficie_lagos" ref="A1:M166" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:M166" xr:uid="{0BAEC30A-E3B4-4059-9A9C-E116395F8AFC}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F099829E-E33F-463C-AA2D-9EA75C138637}" name="Superficie_lagos" displayName="Superficie_lagos" ref="A1:N166" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:N166" xr:uid="{0BAEC30A-E3B4-4059-9A9C-E116395F8AFC}"/>
+  <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{9AFF282D-3F59-4ADB-A948-537A518BDBE5}" uniqueName="1" name="Cod_region" queryTableFieldId="1" dataDxfId="12"/>
     <tableColumn id="10" xr3:uid="{73B79297-9E54-40C4-B68C-8556CDAC4DF3}" uniqueName="10" name="Región" queryTableFieldId="24" dataDxfId="11"/>
     <tableColumn id="4" xr3:uid="{2B598A9A-F457-422A-AD5C-493964A2D9A6}" uniqueName="4" name="Cod_comuna" queryTableFieldId="23" dataDxfId="10"/>
@@ -1011,6 +1015,7 @@
     <tableColumn id="8" xr3:uid="{BB491DC2-A47C-4410-8CEB-01D3B6B51800}" uniqueName="8" name="Categoría" queryTableFieldId="8" dataDxfId="7"/>
     <tableColumn id="11" xr3:uid="{9FAF988D-F0F3-424B-9EE3-A6E80AD942C4}" uniqueName="11" name="Nombre" queryTableFieldId="25" dataDxfId="6"/>
     <tableColumn id="12" xr3:uid="{69161738-D56B-4B1A-8C7D-1CC8991710B7}" uniqueName="12" name="Tipo" queryTableFieldId="26" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{AC408224-C9E1-48AF-BAB6-3C35CE9799A0}" uniqueName="3" name="Id clasificación" queryTableFieldId="28"/>
     <tableColumn id="14" xr3:uid="{FF77031C-F10B-470E-8740-CD0421A63B6D}" uniqueName="14" name="Clasificación" queryTableFieldId="27" dataDxfId="4"/>
     <tableColumn id="9" xr3:uid="{F7BBFA46-A070-4E0C-8422-798CEA8DC089}" uniqueName="9" name="Superficie (Ha)" queryTableFieldId="9" dataDxfId="3"/>
     <tableColumn id="13" xr3:uid="{00674568-A639-4E29-9870-7D558011B447}" uniqueName="13" name="Definición" queryTableFieldId="13"/>
@@ -1029,12 +1034,12 @@
     <tableColumn id="4" xr3:uid="{C06E31EF-5323-464A-861B-C8CCCF0F7D42}" name="Parámetro"/>
     <tableColumn id="5" xr3:uid="{CD7A3311-9974-493F-A6B1-740B370374D2}" name="Detalle"/>
     <tableColumn id="6" xr3:uid="{388D089D-2DED-44B2-93C1-EAC2717C3800}" name="Territorio"/>
-    <tableColumn id="7" xr3:uid="{C59CCBAC-D51B-494F-A428-DDEA4D9BD715}" name="Temporalidad" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{C59CCBAC-D51B-494F-A428-DDEA4D9BD715}" name="Temporalidad" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{E84A7518-1B6F-4ADB-AE4D-D080D32EBC99}" name="Título"/>
     <tableColumn id="9" xr3:uid="{FC780F4B-C7DB-41E4-A693-53DD6FA99C6B}" name="Tags"/>
     <tableColumn id="10" xr3:uid="{DBB530BB-992B-4190-848A-D7DE9C8CD202}" name="ISO país"/>
     <tableColumn id="11" xr3:uid="{15A07EEF-6C1F-4CF5-9B02-0FF1E380ED4A}" name="Nivel administrativo"/>
-    <tableColumn id="12" xr3:uid="{A800014D-067C-4919-A1EA-CB1BE2239437}" name="Descripción larga" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{A800014D-067C-4919-A1EA-CB1BE2239437}" name="Descripción larga" dataDxfId="1"/>
     <tableColumn id="13" xr3:uid="{21C1EE09-C873-4F57-9432-F9DF6B2F64A0}" name="Fecha" dataDxfId="0"/>
     <tableColumn id="14" xr3:uid="{7A8C3236-0C8F-4AD3-BA7C-589BA810C594}" name="Unidad"/>
     <tableColumn id="15" xr3:uid="{24AFDEA5-B87E-4622-A270-B32EFC13575C}" name="Responsable"/>
@@ -1340,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A0990A9-6C8A-4CD6-9135-FE13E8A12DC1}">
-  <dimension ref="A1:R1496"/>
+  <dimension ref="A1:S1496"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1363,7 +1368,7 @@
     <col min="13" max="13" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1395,16 +1400,19 @@
         <v>243</v>
       </c>
       <c r="K1" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1" t="s">
         <v>248</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>247</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
@@ -1435,21 +1443,24 @@
       <c r="J2" t="s">
         <v>244</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
         <v>249</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>1.5</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1</v>
       </c>
-      <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15</v>
       </c>
@@ -1480,21 +1491,24 @@
       <c r="J3" t="s">
         <v>244</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
         <v>250</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>1.2</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>1</v>
       </c>
-      <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -1525,17 +1539,20 @@
       <c r="J4" t="s">
         <v>244</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
         <v>249</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>8.5</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1566,17 +1583,20 @@
       <c r="J5" t="s">
         <v>244</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
         <v>249</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1607,17 +1627,20 @@
       <c r="J6" t="s">
         <v>244</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>249</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>0.8</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -1648,17 +1671,20 @@
       <c r="J7" t="s">
         <v>244</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
         <v>249</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>4.5</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>13</v>
       </c>
@@ -1689,17 +1715,20 @@
       <c r="J8" t="s">
         <v>244</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
         <v>249</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>5.5</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>13</v>
       </c>
@@ -1730,17 +1759,20 @@
       <c r="J9" t="s">
         <v>244</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
         <v>249</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>2.8</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
@@ -1771,17 +1803,20 @@
       <c r="J10" t="s">
         <v>244</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
         <v>249</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1.6</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1812,17 +1847,20 @@
       <c r="J11" t="s">
         <v>244</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
         <v>249</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>25</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -1853,17 +1891,20 @@
       <c r="J12" t="s">
         <v>244</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
         <v>249</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>0.8</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1894,17 +1935,20 @@
       <c r="J13" t="s">
         <v>244</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
         <v>249</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>2.8</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1935,17 +1979,20 @@
       <c r="J14" t="s">
         <v>244</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
         <v>249</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>0.8</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1976,17 +2023,20 @@
       <c r="J15" t="s">
         <v>244</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
         <v>249</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>2.1</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -2017,17 +2067,20 @@
       <c r="J16" t="s">
         <v>244</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
         <v>249</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.5</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -2058,17 +2111,20 @@
       <c r="J17" t="s">
         <v>244</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
         <v>249</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>5</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>7</v>
       </c>
@@ -2099,17 +2155,20 @@
       <c r="J18" t="s">
         <v>244</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" t="s">
         <v>249</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1.6</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>11</v>
       </c>
@@ -2140,17 +2199,20 @@
       <c r="J19" t="s">
         <v>244</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19" t="s">
         <v>250</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>6.9</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10</v>
       </c>
@@ -2181,17 +2243,20 @@
       <c r="J20" t="s">
         <v>245</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
         <v>250</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>5</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
@@ -2222,17 +2287,20 @@
       <c r="J21" t="s">
         <v>245</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21" t="s">
         <v>250</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>11.5</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11</v>
       </c>
@@ -2263,17 +2331,20 @@
       <c r="J22" t="s">
         <v>245</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22" t="s">
         <v>250</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>8.1</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -2304,17 +2375,20 @@
       <c r="J23" t="s">
         <v>245</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23" t="s">
         <v>250</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11</v>
       </c>
@@ -2345,17 +2419,20 @@
       <c r="J24" t="s">
         <v>245</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24" t="s">
         <v>250</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
@@ -2386,17 +2463,20 @@
       <c r="J25" t="s">
         <v>245</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25" t="s">
         <v>250</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>8.1</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11</v>
       </c>
@@ -2427,17 +2507,20 @@
       <c r="J26" t="s">
         <v>245</v>
       </c>
-      <c r="K26" t="s">
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26" t="s">
         <v>250</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>67.5</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>11</v>
       </c>
@@ -2468,17 +2551,20 @@
       <c r="J27" t="s">
         <v>245</v>
       </c>
-      <c r="K27" t="s">
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27" t="s">
         <v>250</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>15.3</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>11</v>
       </c>
@@ -2509,17 +2595,20 @@
       <c r="J28" t="s">
         <v>245</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28" t="s">
         <v>250</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>21.3</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11</v>
       </c>
@@ -2550,17 +2639,20 @@
       <c r="J29" t="s">
         <v>245</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29" t="s">
         <v>250</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>7.5</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11</v>
       </c>
@@ -2591,17 +2683,20 @@
       <c r="J30" t="s">
         <v>245</v>
       </c>
-      <c r="K30" t="s">
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30" t="s">
         <v>250</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>13.8</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11</v>
       </c>
@@ -2632,17 +2727,20 @@
       <c r="J31" t="s">
         <v>245</v>
       </c>
-      <c r="K31" t="s">
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31" t="s">
         <v>250</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11</v>
       </c>
@@ -2673,17 +2771,20 @@
       <c r="J32" t="s">
         <v>245</v>
       </c>
-      <c r="K32" t="s">
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32" t="s">
         <v>250</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>3.4</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>11</v>
       </c>
@@ -2714,17 +2815,20 @@
       <c r="J33" t="s">
         <v>245</v>
       </c>
-      <c r="K33" t="s">
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33" t="s">
         <v>250</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>11.3</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>10</v>
       </c>
@@ -2755,17 +2859,20 @@
       <c r="J34" t="s">
         <v>245</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34" t="s">
         <v>250</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>54.4</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>11</v>
       </c>
@@ -2796,17 +2903,20 @@
       <c r="J35" t="s">
         <v>245</v>
       </c>
-      <c r="K35" t="s">
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35" t="s">
         <v>250</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>5</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11</v>
       </c>
@@ -2837,17 +2947,20 @@
       <c r="J36" t="s">
         <v>245</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36" t="s">
         <v>250</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>14.4</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11</v>
       </c>
@@ -2878,17 +2991,20 @@
       <c r="J37" t="s">
         <v>245</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37" t="s">
         <v>250</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>13.1</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11</v>
       </c>
@@ -2919,17 +3035,20 @@
       <c r="J38" t="s">
         <v>245</v>
       </c>
-      <c r="K38" t="s">
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38" t="s">
         <v>250</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>5</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11</v>
       </c>
@@ -2960,17 +3079,20 @@
       <c r="J39" t="s">
         <v>245</v>
       </c>
-      <c r="K39" t="s">
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39" t="s">
         <v>250</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>3.8</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>9</v>
       </c>
@@ -3001,17 +3123,20 @@
       <c r="J40" t="s">
         <v>245</v>
       </c>
-      <c r="K40" t="s">
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40" t="s">
         <v>250</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>56.5</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>11</v>
       </c>
@@ -3042,17 +3167,20 @@
       <c r="J41" t="s">
         <v>245</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41" t="s">
         <v>250</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>20</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>11</v>
       </c>
@@ -3083,17 +3211,20 @@
       <c r="J42" t="s">
         <v>245</v>
       </c>
-      <c r="K42" t="s">
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42" t="s">
         <v>250</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>11.3</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>11</v>
       </c>
@@ -3124,17 +3255,20 @@
       <c r="J43" t="s">
         <v>245</v>
       </c>
-      <c r="K43" t="s">
+      <c r="K43">
+        <v>3</v>
+      </c>
+      <c r="L43" t="s">
         <v>250</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>6.3</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>11</v>
       </c>
@@ -3165,17 +3299,20 @@
       <c r="J44" t="s">
         <v>245</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44" t="s">
         <v>250</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>5</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>11</v>
       </c>
@@ -3206,17 +3343,20 @@
       <c r="J45" t="s">
         <v>245</v>
       </c>
-      <c r="K45" t="s">
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45" t="s">
         <v>250</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>18.100000000000001</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>11</v>
       </c>
@@ -3247,17 +3387,20 @@
       <c r="J46" t="s">
         <v>245</v>
       </c>
-      <c r="K46" t="s">
+      <c r="K46">
+        <v>3</v>
+      </c>
+      <c r="L46" t="s">
         <v>250</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>45</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11</v>
       </c>
@@ -3288,17 +3431,20 @@
       <c r="J47" t="s">
         <v>245</v>
       </c>
-      <c r="K47" t="s">
+      <c r="K47">
+        <v>3</v>
+      </c>
+      <c r="L47" t="s">
         <v>250</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>25.6</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11</v>
       </c>
@@ -3329,17 +3475,20 @@
       <c r="J48" t="s">
         <v>245</v>
       </c>
-      <c r="K48" t="s">
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48" t="s">
         <v>250</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>5</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>11</v>
       </c>
@@ -3370,17 +3519,20 @@
       <c r="J49" t="s">
         <v>245</v>
       </c>
-      <c r="K49" t="s">
+      <c r="K49">
+        <v>3</v>
+      </c>
+      <c r="L49" t="s">
         <v>250</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>7.5</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>11</v>
       </c>
@@ -3411,17 +3563,20 @@
       <c r="J50" t="s">
         <v>245</v>
       </c>
-      <c r="K50" t="s">
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50" t="s">
         <v>250</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>4.2</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>10</v>
       </c>
@@ -3452,17 +3607,20 @@
       <c r="J51" t="s">
         <v>245</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51" t="s">
         <v>250</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>4.2</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>9</v>
       </c>
@@ -3493,17 +3651,20 @@
       <c r="J52" t="s">
         <v>245</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52" t="s">
         <v>250</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>12</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>11</v>
       </c>
@@ -3534,17 +3695,20 @@
       <c r="J53" t="s">
         <v>245</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53" t="s">
         <v>250</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>3.8</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>11</v>
       </c>
@@ -3575,17 +3739,20 @@
       <c r="J54" t="s">
         <v>245</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54">
+        <v>3</v>
+      </c>
+      <c r="L54" t="s">
         <v>250</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>9.4</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>11</v>
       </c>
@@ -3616,17 +3783,20 @@
       <c r="J55" t="s">
         <v>245</v>
       </c>
-      <c r="K55" t="s">
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55" t="s">
         <v>250</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>3</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>9</v>
       </c>
@@ -3657,17 +3827,20 @@
       <c r="J56" t="s">
         <v>245</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56">
+        <v>3</v>
+      </c>
+      <c r="L56" t="s">
         <v>250</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>11</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>10</v>
       </c>
@@ -3698,17 +3871,20 @@
       <c r="J57" t="s">
         <v>245</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57">
+        <v>3</v>
+      </c>
+      <c r="L57" t="s">
         <v>250</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>17.5</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>11</v>
       </c>
@@ -3739,17 +3915,20 @@
       <c r="J58" t="s">
         <v>245</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58" t="s">
         <v>250</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>11</v>
       </c>
@@ -3780,17 +3959,20 @@
       <c r="J59" t="s">
         <v>245</v>
       </c>
-      <c r="K59" t="s">
+      <c r="K59">
+        <v>3</v>
+      </c>
+      <c r="L59" t="s">
         <v>250</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>4.2</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11</v>
       </c>
@@ -3821,17 +4003,20 @@
       <c r="J60" t="s">
         <v>245</v>
       </c>
-      <c r="K60" t="s">
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60" t="s">
         <v>250</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>14.4</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11</v>
       </c>
@@ -3862,17 +4047,20 @@
       <c r="J61" t="s">
         <v>245</v>
       </c>
-      <c r="K61" t="s">
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61" t="s">
         <v>250</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>24.4</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11</v>
       </c>
@@ -3903,17 +4091,20 @@
       <c r="J62" t="s">
         <v>245</v>
       </c>
-      <c r="K62" t="s">
+      <c r="K62">
+        <v>3</v>
+      </c>
+      <c r="L62" t="s">
         <v>250</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>3.8</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11</v>
       </c>
@@ -3944,17 +4135,20 @@
       <c r="J63" t="s">
         <v>245</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63">
+        <v>3</v>
+      </c>
+      <c r="L63" t="s">
         <v>250</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>8.1</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>11</v>
       </c>
@@ -3985,17 +4179,20 @@
       <c r="J64" t="s">
         <v>245</v>
       </c>
-      <c r="K64" t="s">
+      <c r="K64">
+        <v>3</v>
+      </c>
+      <c r="L64" t="s">
         <v>250</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>20.6</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10</v>
       </c>
@@ -4026,17 +4223,20 @@
       <c r="J65" t="s">
         <v>245</v>
       </c>
-      <c r="K65" t="s">
+      <c r="K65">
+        <v>3</v>
+      </c>
+      <c r="L65" t="s">
         <v>250</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>3.1</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>11</v>
       </c>
@@ -4067,17 +4267,20 @@
       <c r="J66" t="s">
         <v>245</v>
       </c>
-      <c r="K66" t="s">
+      <c r="K66">
+        <v>3</v>
+      </c>
+      <c r="L66" t="s">
         <v>250</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>10.6</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>11</v>
       </c>
@@ -4108,17 +4311,20 @@
       <c r="J67" t="s">
         <v>245</v>
       </c>
-      <c r="K67" t="s">
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="L67" t="s">
         <v>250</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>5.9</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>11</v>
       </c>
@@ -4149,17 +4355,20 @@
       <c r="J68" t="s">
         <v>245</v>
       </c>
-      <c r="K68" t="s">
+      <c r="K68">
+        <v>3</v>
+      </c>
+      <c r="L68" t="s">
         <v>250</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>9.4</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10</v>
       </c>
@@ -4190,17 +4399,20 @@
       <c r="J69" t="s">
         <v>245</v>
       </c>
-      <c r="K69" t="s">
+      <c r="K69">
+        <v>3</v>
+      </c>
+      <c r="L69" t="s">
         <v>250</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>10.6</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14</v>
       </c>
@@ -4231,17 +4443,20 @@
       <c r="J70" t="s">
         <v>245</v>
       </c>
-      <c r="K70" t="s">
+      <c r="K70">
+        <v>3</v>
+      </c>
+      <c r="L70" t="s">
         <v>250</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>111</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>11</v>
       </c>
@@ -4272,17 +4487,20 @@
       <c r="J71" t="s">
         <v>245</v>
       </c>
-      <c r="K71" t="s">
+      <c r="K71">
+        <v>3</v>
+      </c>
+      <c r="L71" t="s">
         <v>250</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>13.8</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>14</v>
       </c>
@@ -4313,17 +4531,20 @@
       <c r="J72" t="s">
         <v>245</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72" t="s">
         <v>250</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>33.799999999999997</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>11</v>
       </c>
@@ -4354,17 +4575,20 @@
       <c r="J73" t="s">
         <v>245</v>
       </c>
-      <c r="K73" t="s">
+      <c r="K73">
+        <v>3</v>
+      </c>
+      <c r="L73" t="s">
         <v>250</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>9.4</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>11</v>
       </c>
@@ -4395,17 +4619,20 @@
       <c r="J74" t="s">
         <v>245</v>
       </c>
-      <c r="K74" t="s">
+      <c r="K74">
+        <v>3</v>
+      </c>
+      <c r="L74" t="s">
         <v>250</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>5</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>11</v>
       </c>
@@ -4436,17 +4663,20 @@
       <c r="J75" t="s">
         <v>245</v>
       </c>
-      <c r="K75" t="s">
+      <c r="K75">
+        <v>3</v>
+      </c>
+      <c r="L75" t="s">
         <v>250</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>313</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11</v>
       </c>
@@ -4477,17 +4707,20 @@
       <c r="J76" t="s">
         <v>245</v>
       </c>
-      <c r="K76" t="s">
+      <c r="K76">
+        <v>3</v>
+      </c>
+      <c r="L76" t="s">
         <v>250</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>5</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11</v>
       </c>
@@ -4518,17 +4751,20 @@
       <c r="J77" t="s">
         <v>245</v>
       </c>
-      <c r="K77" t="s">
+      <c r="K77">
+        <v>3</v>
+      </c>
+      <c r="L77" t="s">
         <v>250</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>15</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>11</v>
       </c>
@@ -4559,17 +4795,20 @@
       <c r="J78" t="s">
         <v>245</v>
       </c>
-      <c r="K78" t="s">
+      <c r="K78">
+        <v>3</v>
+      </c>
+      <c r="L78" t="s">
         <v>250</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>3</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>11</v>
       </c>
@@ -4600,17 +4839,20 @@
       <c r="J79" t="s">
         <v>245</v>
       </c>
-      <c r="K79" t="s">
+      <c r="K79">
+        <v>3</v>
+      </c>
+      <c r="L79" t="s">
         <v>250</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>6.4</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>11</v>
       </c>
@@ -4641,17 +4883,20 @@
       <c r="J80" t="s">
         <v>245</v>
       </c>
-      <c r="K80" t="s">
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="L80" t="s">
         <v>250</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>32.5</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>11</v>
       </c>
@@ -4682,17 +4927,20 @@
       <c r="J81" t="s">
         <v>245</v>
       </c>
-      <c r="K81" t="s">
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81" t="s">
         <v>250</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>6.3</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>10</v>
       </c>
@@ -4723,17 +4971,20 @@
       <c r="J82" t="s">
         <v>245</v>
       </c>
-      <c r="K82" t="s">
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82" t="s">
         <v>250</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>183</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>11</v>
       </c>
@@ -4764,17 +5015,20 @@
       <c r="J83" t="s">
         <v>245</v>
       </c>
-      <c r="K83" t="s">
+      <c r="K83">
+        <v>3</v>
+      </c>
+      <c r="L83" t="s">
         <v>250</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>11</v>
       </c>
@@ -4805,17 +5059,20 @@
       <c r="J84" t="s">
         <v>245</v>
       </c>
-      <c r="K84" t="s">
+      <c r="K84">
+        <v>3</v>
+      </c>
+      <c r="L84" t="s">
         <v>250</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>3.8</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>11</v>
       </c>
@@ -4846,17 +5103,20 @@
       <c r="J85" t="s">
         <v>245</v>
       </c>
-      <c r="K85" t="s">
+      <c r="K85">
+        <v>3</v>
+      </c>
+      <c r="L85" t="s">
         <v>250</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>4.3</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>11</v>
       </c>
@@ -4887,17 +5147,20 @@
       <c r="J86" t="s">
         <v>245</v>
       </c>
-      <c r="K86" t="s">
+      <c r="K86">
+        <v>3</v>
+      </c>
+      <c r="L86" t="s">
         <v>250</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>3.3</v>
       </c>
-      <c r="M86">
+      <c r="N86">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>11</v>
       </c>
@@ -4928,17 +5191,20 @@
       <c r="J87" t="s">
         <v>245</v>
       </c>
-      <c r="K87" t="s">
+      <c r="K87">
+        <v>3</v>
+      </c>
+      <c r="L87" t="s">
         <v>250</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>22.2</v>
       </c>
-      <c r="M87">
+      <c r="N87">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>11</v>
       </c>
@@ -4969,17 +5235,20 @@
       <c r="J88" t="s">
         <v>245</v>
       </c>
-      <c r="K88" t="s">
+      <c r="K88">
+        <v>3</v>
+      </c>
+      <c r="L88" t="s">
         <v>250</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>9.4</v>
       </c>
-      <c r="M88">
+      <c r="N88">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>11</v>
       </c>
@@ -5010,17 +5279,20 @@
       <c r="J89" t="s">
         <v>245</v>
       </c>
-      <c r="K89" t="s">
+      <c r="K89">
+        <v>3</v>
+      </c>
+      <c r="L89" t="s">
         <v>250</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>59.4</v>
       </c>
-      <c r="M89">
+      <c r="N89">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>11</v>
       </c>
@@ -5051,17 +5323,20 @@
       <c r="J90" t="s">
         <v>245</v>
       </c>
-      <c r="K90" t="s">
+      <c r="K90">
+        <v>3</v>
+      </c>
+      <c r="L90" t="s">
         <v>250</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>6.9</v>
       </c>
-      <c r="M90">
+      <c r="N90">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>11</v>
       </c>
@@ -5092,17 +5367,20 @@
       <c r="J91" t="s">
         <v>245</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K91">
+        <v>3</v>
+      </c>
+      <c r="L91" t="s">
         <v>250</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -5133,17 +5411,20 @@
       <c r="J92" t="s">
         <v>246</v>
       </c>
-      <c r="K92" t="s">
+      <c r="K92">
+        <v>3</v>
+      </c>
+      <c r="L92" t="s">
         <v>250</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>999</v>
       </c>
-      <c r="M92">
+      <c r="N92">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>11</v>
       </c>
@@ -5174,17 +5455,20 @@
       <c r="J93" t="s">
         <v>246</v>
       </c>
-      <c r="K93" t="s">
+      <c r="K93">
+        <v>3</v>
+      </c>
+      <c r="L93" t="s">
         <v>250</v>
-      </c>
-      <c r="L93">
-        <v>3</v>
       </c>
       <c r="M93">
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>16</v>
       </c>
@@ -5215,17 +5499,20 @@
       <c r="J94" t="s">
         <v>246</v>
       </c>
-      <c r="K94" t="s">
+      <c r="K94">
+        <v>3</v>
+      </c>
+      <c r="L94" t="s">
         <v>250</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <v>1.8</v>
       </c>
-      <c r="M94">
+      <c r="N94">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>10</v>
       </c>
@@ -5256,17 +5543,20 @@
       <c r="J95" t="s">
         <v>246</v>
       </c>
-      <c r="K95" t="s">
+      <c r="K95">
+        <v>3</v>
+      </c>
+      <c r="L95" t="s">
         <v>250</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <v>12.5</v>
       </c>
-      <c r="M95">
+      <c r="N95">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>15</v>
       </c>
@@ -5297,17 +5587,20 @@
       <c r="J96" t="s">
         <v>246</v>
       </c>
-      <c r="K96" t="s">
+      <c r="K96">
+        <v>3</v>
+      </c>
+      <c r="L96" t="s">
         <v>250</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <v>13.8</v>
       </c>
-      <c r="M96">
+      <c r="N96">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3</v>
       </c>
@@ -5338,17 +5631,20 @@
       <c r="J97" t="s">
         <v>246</v>
       </c>
-      <c r="K97" t="s">
+      <c r="K97">
+        <v>3</v>
+      </c>
+      <c r="L97" t="s">
         <v>250</v>
       </c>
-      <c r="L97">
+      <c r="M97">
         <v>4.7</v>
       </c>
-      <c r="M97">
+      <c r="N97">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>10</v>
       </c>
@@ -5379,17 +5675,20 @@
       <c r="J98" t="s">
         <v>246</v>
       </c>
-      <c r="K98" t="s">
+      <c r="K98">
+        <v>3</v>
+      </c>
+      <c r="L98" t="s">
         <v>250</v>
       </c>
-      <c r="L98">
+      <c r="M98">
         <v>4.5</v>
       </c>
-      <c r="M98">
+      <c r="N98">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>11</v>
       </c>
@@ -5420,17 +5719,20 @@
       <c r="J99" t="s">
         <v>246</v>
       </c>
-      <c r="K99" t="s">
+      <c r="K99">
+        <v>3</v>
+      </c>
+      <c r="L99" t="s">
         <v>250</v>
       </c>
-      <c r="L99">
+      <c r="M99">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M99">
+      <c r="N99">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>6</v>
       </c>
@@ -5461,17 +5763,20 @@
       <c r="J100" t="s">
         <v>246</v>
       </c>
-      <c r="K100" t="s">
+      <c r="K100">
+        <v>3</v>
+      </c>
+      <c r="L100" t="s">
         <v>250</v>
       </c>
-      <c r="L100">
+      <c r="M100">
         <v>4.8</v>
       </c>
-      <c r="M100">
+      <c r="N100">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10</v>
       </c>
@@ -5502,17 +5807,20 @@
       <c r="J101" t="s">
         <v>246</v>
       </c>
-      <c r="K101" t="s">
+      <c r="K101">
+        <v>3</v>
+      </c>
+      <c r="L101" t="s">
         <v>250</v>
       </c>
-      <c r="L101">
+      <c r="M101">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M101">
+      <c r="N101">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>10</v>
       </c>
@@ -5543,17 +5851,20 @@
       <c r="J102" t="s">
         <v>246</v>
       </c>
-      <c r="K102" t="s">
+      <c r="K102">
+        <v>3</v>
+      </c>
+      <c r="L102" t="s">
         <v>250</v>
       </c>
-      <c r="L102">
+      <c r="M102">
         <v>3.4</v>
       </c>
-      <c r="M102">
+      <c r="N102">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>10</v>
       </c>
@@ -5584,17 +5895,20 @@
       <c r="J103" t="s">
         <v>246</v>
       </c>
-      <c r="K103" t="s">
+      <c r="K103">
+        <v>3</v>
+      </c>
+      <c r="L103" t="s">
         <v>250</v>
       </c>
-      <c r="L103">
+      <c r="M103">
         <v>14.4</v>
       </c>
-      <c r="M103">
+      <c r="N103">
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3</v>
       </c>
@@ -5625,17 +5939,20 @@
       <c r="J104" t="s">
         <v>246</v>
       </c>
-      <c r="K104" t="s">
+      <c r="K104">
+        <v>3</v>
+      </c>
+      <c r="L104" t="s">
         <v>250</v>
       </c>
-      <c r="L104">
+      <c r="M104">
         <v>0.8</v>
       </c>
-      <c r="M104">
+      <c r="N104">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>15</v>
       </c>
@@ -5666,17 +5983,20 @@
       <c r="J105" t="s">
         <v>246</v>
       </c>
-      <c r="K105" t="s">
+      <c r="K105">
+        <v>2</v>
+      </c>
+      <c r="L105" t="s">
         <v>251</v>
       </c>
-      <c r="L105">
+      <c r="M105">
         <v>20.6</v>
       </c>
-      <c r="M105">
+      <c r="N105">
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>11</v>
       </c>
@@ -5707,17 +6027,20 @@
       <c r="J106" t="s">
         <v>246</v>
       </c>
-      <c r="K106" t="s">
+      <c r="K106">
+        <v>3</v>
+      </c>
+      <c r="L106" t="s">
         <v>250</v>
       </c>
-      <c r="L106">
+      <c r="M106">
         <v>3.9</v>
       </c>
-      <c r="M106">
+      <c r="N106">
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>9</v>
       </c>
@@ -5748,17 +6071,20 @@
       <c r="J107" t="s">
         <v>246</v>
       </c>
-      <c r="K107" t="s">
+      <c r="K107">
+        <v>3</v>
+      </c>
+      <c r="L107" t="s">
         <v>250</v>
       </c>
-      <c r="L107">
+      <c r="M107">
         <v>7.8</v>
       </c>
-      <c r="M107">
+      <c r="N107">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>11</v>
       </c>
@@ -5789,17 +6115,20 @@
       <c r="J108" t="s">
         <v>246</v>
       </c>
-      <c r="K108" t="s">
+      <c r="K108">
+        <v>3</v>
+      </c>
+      <c r="L108" t="s">
         <v>250</v>
       </c>
-      <c r="L108">
+      <c r="M108">
         <v>5.6</v>
       </c>
-      <c r="M108">
+      <c r="N108">
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>13</v>
       </c>
@@ -5830,17 +6159,20 @@
       <c r="J109" t="s">
         <v>246</v>
       </c>
-      <c r="K109" t="s">
+      <c r="K109">
+        <v>3</v>
+      </c>
+      <c r="L109" t="s">
         <v>250</v>
       </c>
-      <c r="L109">
+      <c r="M109">
         <v>11.7</v>
       </c>
-      <c r="M109">
+      <c r="N109">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>13</v>
       </c>
@@ -5871,17 +6203,20 @@
       <c r="J110" t="s">
         <v>246</v>
       </c>
-      <c r="K110" t="s">
+      <c r="K110">
+        <v>3</v>
+      </c>
+      <c r="L110" t="s">
         <v>250</v>
       </c>
-      <c r="L110">
+      <c r="M110">
         <v>2.8</v>
       </c>
-      <c r="M110">
+      <c r="N110">
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>10</v>
       </c>
@@ -5912,17 +6247,20 @@
       <c r="J111" t="s">
         <v>246</v>
       </c>
-      <c r="K111" t="s">
+      <c r="K111">
+        <v>3</v>
+      </c>
+      <c r="L111" t="s">
         <v>250</v>
       </c>
-      <c r="L111">
+      <c r="M111">
         <v>4</v>
       </c>
-      <c r="M111">
+      <c r="N111">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>15</v>
       </c>
@@ -5953,17 +6291,20 @@
       <c r="J112" t="s">
         <v>246</v>
       </c>
-      <c r="K112" t="s">
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112" t="s">
         <v>251</v>
       </c>
-      <c r="L112">
+      <c r="M112">
         <v>6.9</v>
       </c>
-      <c r="M112">
+      <c r="N112">
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>9</v>
       </c>
@@ -5994,17 +6335,20 @@
       <c r="J113" t="s">
         <v>246</v>
       </c>
-      <c r="K113" t="s">
+      <c r="K113">
+        <v>3</v>
+      </c>
+      <c r="L113" t="s">
         <v>250</v>
       </c>
-      <c r="L113">
+      <c r="M113">
         <v>7.5</v>
       </c>
-      <c r="M113">
+      <c r="N113">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>7</v>
       </c>
@@ -6035,17 +6379,20 @@
       <c r="J114" t="s">
         <v>246</v>
       </c>
-      <c r="K114" t="s">
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114" t="s">
         <v>251</v>
       </c>
-      <c r="L114">
+      <c r="M114">
         <v>2.7</v>
       </c>
-      <c r="M114">
+      <c r="N114">
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>8</v>
       </c>
@@ -6076,17 +6423,20 @@
       <c r="J115" t="s">
         <v>246</v>
       </c>
-      <c r="K115" t="s">
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115" t="s">
         <v>251</v>
       </c>
-      <c r="L115">
+      <c r="M115">
         <v>124</v>
       </c>
-      <c r="M115">
+      <c r="N115">
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>10</v>
       </c>
@@ -6117,17 +6467,20 @@
       <c r="J116" t="s">
         <v>246</v>
       </c>
-      <c r="K116" t="s">
+      <c r="K116">
+        <v>3</v>
+      </c>
+      <c r="L116" t="s">
         <v>250</v>
       </c>
-      <c r="L116">
+      <c r="M116">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M116">
+      <c r="N116">
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>10</v>
       </c>
@@ -6158,17 +6511,20 @@
       <c r="J117" t="s">
         <v>246</v>
       </c>
-      <c r="K117" t="s">
+      <c r="K117">
+        <v>3</v>
+      </c>
+      <c r="L117" t="s">
         <v>250</v>
       </c>
-      <c r="L117">
+      <c r="M117">
         <v>9.4</v>
       </c>
-      <c r="M117">
+      <c r="N117">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>11</v>
       </c>
@@ -6199,17 +6555,20 @@
       <c r="J118" t="s">
         <v>246</v>
       </c>
-      <c r="K118" t="s">
+      <c r="K118">
+        <v>3</v>
+      </c>
+      <c r="L118" t="s">
         <v>250</v>
       </c>
-      <c r="L118">
+      <c r="M118">
         <v>3.3</v>
       </c>
-      <c r="M118">
+      <c r="N118">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>6</v>
       </c>
@@ -6240,17 +6599,20 @@
       <c r="J119" t="s">
         <v>246</v>
       </c>
-      <c r="K119" t="s">
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119" t="s">
         <v>249</v>
       </c>
-      <c r="L119">
+      <c r="M119">
         <v>0.5</v>
       </c>
-      <c r="M119">
+      <c r="N119">
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>10</v>
       </c>
@@ -6281,17 +6643,20 @@
       <c r="J120" t="s">
         <v>246</v>
       </c>
-      <c r="K120" t="s">
+      <c r="K120">
+        <v>3</v>
+      </c>
+      <c r="L120" t="s">
         <v>250</v>
       </c>
-      <c r="L120">
+      <c r="M120">
         <v>8.1</v>
       </c>
-      <c r="M120">
+      <c r="N120">
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
@@ -6322,17 +6687,20 @@
       <c r="J121" t="s">
         <v>246</v>
       </c>
-      <c r="K121" t="s">
+      <c r="K121">
+        <v>3</v>
+      </c>
+      <c r="L121" t="s">
         <v>250</v>
       </c>
-      <c r="L121">
+      <c r="M121">
         <v>3.1</v>
       </c>
-      <c r="M121">
+      <c r="N121">
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>7</v>
       </c>
@@ -6363,17 +6731,20 @@
       <c r="J122" t="s">
         <v>246</v>
       </c>
-      <c r="K122" t="s">
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122" t="s">
         <v>251</v>
       </c>
-      <c r="L122">
+      <c r="M122">
         <v>68</v>
       </c>
-      <c r="M122">
+      <c r="N122">
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3</v>
       </c>
@@ -6404,17 +6775,20 @@
       <c r="J123" t="s">
         <v>246</v>
       </c>
-      <c r="K123" t="s">
+      <c r="K123">
+        <v>3</v>
+      </c>
+      <c r="L123" t="s">
         <v>250</v>
       </c>
-      <c r="L123">
+      <c r="M123">
         <v>29</v>
       </c>
-      <c r="M123">
+      <c r="N123">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>10</v>
       </c>
@@ -6445,17 +6819,20 @@
       <c r="J124" t="s">
         <v>246</v>
       </c>
-      <c r="K124" t="s">
+      <c r="K124">
+        <v>3</v>
+      </c>
+      <c r="L124" t="s">
         <v>250</v>
-      </c>
-      <c r="L124">
-        <v>3</v>
       </c>
       <c r="M124">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>4</v>
       </c>
@@ -6486,17 +6863,20 @@
       <c r="J125" t="s">
         <v>246</v>
       </c>
-      <c r="K125" t="s">
+      <c r="K125">
+        <v>3</v>
+      </c>
+      <c r="L125" t="s">
         <v>250</v>
       </c>
-      <c r="L125">
+      <c r="M125">
         <v>3.1</v>
       </c>
-      <c r="M125">
+      <c r="N125">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>7</v>
       </c>
@@ -6527,17 +6907,20 @@
       <c r="J126" t="s">
         <v>246</v>
       </c>
-      <c r="K126" t="s">
+      <c r="K126">
+        <v>3</v>
+      </c>
+      <c r="L126" t="s">
         <v>250</v>
       </c>
-      <c r="L126">
+      <c r="M126">
         <v>6.3</v>
       </c>
-      <c r="M126">
+      <c r="N126">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>3</v>
       </c>
@@ -6568,17 +6951,20 @@
       <c r="J127" t="s">
         <v>246</v>
       </c>
-      <c r="K127" t="s">
+      <c r="K127">
+        <v>3</v>
+      </c>
+      <c r="L127" t="s">
         <v>250</v>
       </c>
-      <c r="L127">
+      <c r="M127">
         <v>4.5</v>
       </c>
-      <c r="M127">
+      <c r="N127">
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>11</v>
       </c>
@@ -6609,17 +6995,20 @@
       <c r="J128" t="s">
         <v>246</v>
       </c>
-      <c r="K128" t="s">
+      <c r="K128">
+        <v>3</v>
+      </c>
+      <c r="L128" t="s">
         <v>250</v>
       </c>
-      <c r="L128">
+      <c r="M128">
         <v>6.9</v>
       </c>
-      <c r="M128">
+      <c r="N128">
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>10</v>
       </c>
@@ -6650,17 +7039,20 @@
       <c r="J129" t="s">
         <v>246</v>
       </c>
-      <c r="K129" t="s">
+      <c r="K129">
+        <v>3</v>
+      </c>
+      <c r="L129" t="s">
         <v>250</v>
       </c>
-      <c r="L129">
+      <c r="M129">
         <v>5.8</v>
       </c>
-      <c r="M129">
+      <c r="N129">
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>10</v>
       </c>
@@ -6691,17 +7083,20 @@
       <c r="J130" t="s">
         <v>246</v>
       </c>
-      <c r="K130" t="s">
+      <c r="K130">
+        <v>3</v>
+      </c>
+      <c r="L130" t="s">
         <v>250</v>
       </c>
-      <c r="L130">
+      <c r="M130">
         <v>15</v>
       </c>
-      <c r="M130">
+      <c r="N130">
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>10</v>
       </c>
@@ -6732,17 +7127,20 @@
       <c r="J131" t="s">
         <v>246</v>
       </c>
-      <c r="K131" t="s">
+      <c r="K131">
+        <v>3</v>
+      </c>
+      <c r="L131" t="s">
         <v>250</v>
-      </c>
-      <c r="L131">
-        <v>3</v>
       </c>
       <c r="M131">
         <v>3</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3</v>
       </c>
@@ -6773,17 +7171,20 @@
       <c r="J132" t="s">
         <v>246</v>
       </c>
-      <c r="K132" t="s">
+      <c r="K132">
+        <v>3</v>
+      </c>
+      <c r="L132" t="s">
         <v>250</v>
       </c>
-      <c r="L132">
+      <c r="M132">
         <v>1.2</v>
       </c>
-      <c r="M132">
+      <c r="N132">
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>8</v>
       </c>
@@ -6814,17 +7215,20 @@
       <c r="J133" t="s">
         <v>246</v>
       </c>
-      <c r="K133" t="s">
+      <c r="K133">
+        <v>3</v>
+      </c>
+      <c r="L133" t="s">
         <v>250</v>
       </c>
-      <c r="L133">
+      <c r="M133">
         <v>1.4</v>
       </c>
-      <c r="M133">
+      <c r="N133">
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>14</v>
       </c>
@@ -6855,17 +7259,20 @@
       <c r="J134" t="s">
         <v>246</v>
       </c>
-      <c r="K134" t="s">
+      <c r="K134">
+        <v>3</v>
+      </c>
+      <c r="L134" t="s">
         <v>250</v>
       </c>
-      <c r="L134">
+      <c r="M134">
         <v>10.6</v>
       </c>
-      <c r="M134">
+      <c r="N134">
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>14</v>
       </c>
@@ -6896,17 +7303,20 @@
       <c r="J135" t="s">
         <v>246</v>
       </c>
-      <c r="K135" t="s">
+      <c r="K135">
+        <v>3</v>
+      </c>
+      <c r="L135" t="s">
         <v>250</v>
       </c>
-      <c r="L135">
+      <c r="M135">
         <v>12.5</v>
       </c>
-      <c r="M135">
+      <c r="N135">
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>10</v>
       </c>
@@ -6937,17 +7347,20 @@
       <c r="J136" t="s">
         <v>246</v>
       </c>
-      <c r="K136" t="s">
+      <c r="K136">
+        <v>3</v>
+      </c>
+      <c r="L136" t="s">
         <v>250</v>
       </c>
-      <c r="L136">
+      <c r="M136">
         <v>4.8</v>
       </c>
-      <c r="M136">
+      <c r="N136">
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>10</v>
       </c>
@@ -6978,17 +7391,20 @@
       <c r="J137" t="s">
         <v>246</v>
       </c>
-      <c r="K137" t="s">
+      <c r="K137">
+        <v>3</v>
+      </c>
+      <c r="L137" t="s">
         <v>250</v>
       </c>
-      <c r="L137">
+      <c r="M137">
         <v>4.8</v>
       </c>
-      <c r="M137">
+      <c r="N137">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>10</v>
       </c>
@@ -7019,17 +7435,20 @@
       <c r="J138" t="s">
         <v>246</v>
       </c>
-      <c r="K138" t="s">
+      <c r="K138">
+        <v>3</v>
+      </c>
+      <c r="L138" t="s">
         <v>250</v>
       </c>
-      <c r="L138">
+      <c r="M138">
         <v>9.1</v>
       </c>
-      <c r="M138">
+      <c r="N138">
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>11</v>
       </c>
@@ -7060,17 +7479,20 @@
       <c r="J139" t="s">
         <v>246</v>
       </c>
-      <c r="K139" t="s">
+      <c r="K139">
+        <v>3</v>
+      </c>
+      <c r="L139" t="s">
         <v>250</v>
-      </c>
-      <c r="L139">
-        <v>3</v>
       </c>
       <c r="M139">
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>11</v>
       </c>
@@ -7101,17 +7523,20 @@
       <c r="J140" t="s">
         <v>246</v>
       </c>
-      <c r="K140" t="s">
+      <c r="K140">
+        <v>3</v>
+      </c>
+      <c r="L140" t="s">
         <v>250</v>
       </c>
-      <c r="L140">
+      <c r="M140">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M140">
+      <c r="N140">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2</v>
       </c>
@@ -7142,17 +7567,20 @@
       <c r="J141" t="s">
         <v>246</v>
       </c>
-      <c r="K141" t="s">
+      <c r="K141">
+        <v>3</v>
+      </c>
+      <c r="L141" t="s">
         <v>250</v>
       </c>
-      <c r="L141">
+      <c r="M141">
         <v>2.1</v>
       </c>
-      <c r="M141">
+      <c r="N141">
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2</v>
       </c>
@@ -7183,17 +7611,20 @@
       <c r="J142" t="s">
         <v>246</v>
       </c>
-      <c r="K142" t="s">
+      <c r="K142">
+        <v>3</v>
+      </c>
+      <c r="L142" t="s">
         <v>250</v>
       </c>
-      <c r="L142">
+      <c r="M142">
         <v>1.8</v>
       </c>
-      <c r="M142">
+      <c r="N142">
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2</v>
       </c>
@@ -7224,17 +7655,20 @@
       <c r="J143" t="s">
         <v>246</v>
       </c>
-      <c r="K143" t="s">
+      <c r="K143">
+        <v>3</v>
+      </c>
+      <c r="L143" t="s">
         <v>250</v>
       </c>
-      <c r="L143">
+      <c r="M143">
         <v>15</v>
       </c>
-      <c r="M143">
+      <c r="N143">
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>13</v>
       </c>
@@ -7265,17 +7699,20 @@
       <c r="J144" t="s">
         <v>246</v>
       </c>
-      <c r="K144" t="s">
+      <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144" t="s">
         <v>251</v>
       </c>
-      <c r="L144">
+      <c r="M144">
         <v>4.7</v>
       </c>
-      <c r="M144">
+      <c r="N144">
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>11</v>
       </c>
@@ -7306,17 +7743,20 @@
       <c r="J145" t="s">
         <v>246</v>
       </c>
-      <c r="K145" t="s">
+      <c r="K145">
+        <v>3</v>
+      </c>
+      <c r="L145" t="s">
         <v>250</v>
       </c>
-      <c r="L145">
+      <c r="M145">
         <v>3.1</v>
       </c>
-      <c r="M145">
+      <c r="N145">
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>14</v>
       </c>
@@ -7347,17 +7787,20 @@
       <c r="J146" t="s">
         <v>246</v>
       </c>
-      <c r="K146" t="s">
+      <c r="K146">
+        <v>3</v>
+      </c>
+      <c r="L146" t="s">
         <v>250</v>
       </c>
-      <c r="L146">
+      <c r="M146">
         <v>9.4</v>
       </c>
-      <c r="M146">
+      <c r="N146">
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>14</v>
       </c>
@@ -7388,17 +7831,20 @@
       <c r="J147" t="s">
         <v>246</v>
       </c>
-      <c r="K147" t="s">
+      <c r="K147">
+        <v>3</v>
+      </c>
+      <c r="L147" t="s">
         <v>250</v>
       </c>
-      <c r="L147">
+      <c r="M147">
         <v>5.6</v>
       </c>
-      <c r="M147">
+      <c r="N147">
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>5</v>
       </c>
@@ -7429,17 +7875,20 @@
       <c r="J148" t="s">
         <v>246</v>
       </c>
-      <c r="K148" t="s">
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148" t="s">
         <v>249</v>
       </c>
-      <c r="L148">
+      <c r="M148">
         <v>11</v>
       </c>
-      <c r="M148">
+      <c r="N148">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>14</v>
       </c>
@@ -7470,17 +7919,20 @@
       <c r="J149" t="s">
         <v>246</v>
       </c>
-      <c r="K149" t="s">
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149" t="s">
         <v>251</v>
       </c>
-      <c r="L149">
+      <c r="M149">
         <v>6.3</v>
       </c>
-      <c r="M149">
+      <c r="N149">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>10</v>
       </c>
@@ -7511,17 +7963,20 @@
       <c r="J150" t="s">
         <v>246</v>
       </c>
-      <c r="K150" t="s">
+      <c r="K150">
+        <v>3</v>
+      </c>
+      <c r="L150" t="s">
         <v>250</v>
       </c>
-      <c r="L150">
+      <c r="M150">
         <v>17.5</v>
       </c>
-      <c r="M150">
+      <c r="N150">
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>10</v>
       </c>
@@ -7552,17 +8007,20 @@
       <c r="J151" t="s">
         <v>246</v>
       </c>
-      <c r="K151" t="s">
+      <c r="K151">
+        <v>3</v>
+      </c>
+      <c r="L151" t="s">
         <v>250</v>
       </c>
-      <c r="L151">
+      <c r="M151">
         <v>3.3</v>
       </c>
-      <c r="M151">
+      <c r="N151">
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>3</v>
       </c>
@@ -7593,17 +8051,20 @@
       <c r="J152" t="s">
         <v>246</v>
       </c>
-      <c r="K152" t="s">
+      <c r="K152">
+        <v>3</v>
+      </c>
+      <c r="L152" t="s">
         <v>250</v>
       </c>
-      <c r="L152">
+      <c r="M152">
         <v>2.6</v>
       </c>
-      <c r="M152">
+      <c r="N152">
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>10</v>
       </c>
@@ -7634,17 +8095,20 @@
       <c r="J153" t="s">
         <v>246</v>
       </c>
-      <c r="K153" t="s">
+      <c r="K153">
+        <v>3</v>
+      </c>
+      <c r="L153" t="s">
         <v>250</v>
       </c>
-      <c r="L153">
+      <c r="M153">
         <v>13.1</v>
       </c>
-      <c r="M153">
+      <c r="N153">
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>10</v>
       </c>
@@ -7675,17 +8139,20 @@
       <c r="J154" t="s">
         <v>246</v>
       </c>
-      <c r="K154" t="s">
+      <c r="K154">
+        <v>3</v>
+      </c>
+      <c r="L154" t="s">
         <v>250</v>
       </c>
-      <c r="L154">
+      <c r="M154">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M154">
+      <c r="N154">
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>10</v>
       </c>
@@ -7716,17 +8183,20 @@
       <c r="J155" t="s">
         <v>246</v>
       </c>
-      <c r="K155" t="s">
+      <c r="K155">
+        <v>3</v>
+      </c>
+      <c r="L155" t="s">
         <v>250</v>
       </c>
-      <c r="L155">
+      <c r="M155">
         <v>16.899999999999999</v>
       </c>
-      <c r="M155">
+      <c r="N155">
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>11</v>
       </c>
@@ -7757,17 +8227,20 @@
       <c r="J156" t="s">
         <v>246</v>
       </c>
-      <c r="K156" t="s">
+      <c r="K156">
+        <v>3</v>
+      </c>
+      <c r="L156" t="s">
         <v>250</v>
       </c>
-      <c r="L156">
+      <c r="M156">
         <v>5.6</v>
       </c>
-      <c r="M156">
+      <c r="N156">
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>10</v>
       </c>
@@ -7798,17 +8271,20 @@
       <c r="J157" t="s">
         <v>246</v>
       </c>
-      <c r="K157" t="s">
+      <c r="K157">
+        <v>3</v>
+      </c>
+      <c r="L157" t="s">
         <v>250</v>
       </c>
-      <c r="L157">
+      <c r="M157">
         <v>18.100000000000001</v>
       </c>
-      <c r="M157">
+      <c r="N157">
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>10</v>
       </c>
@@ -7839,17 +8315,20 @@
       <c r="J158" t="s">
         <v>246</v>
       </c>
-      <c r="K158" t="s">
+      <c r="K158">
+        <v>3</v>
+      </c>
+      <c r="L158" t="s">
         <v>250</v>
       </c>
-      <c r="L158">
+      <c r="M158">
         <v>4.8</v>
       </c>
-      <c r="M158">
+      <c r="N158">
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2</v>
       </c>
@@ -7880,17 +8359,20 @@
       <c r="J159" t="s">
         <v>246</v>
       </c>
-      <c r="K159" t="s">
+      <c r="K159">
+        <v>3</v>
+      </c>
+      <c r="L159" t="s">
         <v>250</v>
       </c>
-      <c r="L159">
+      <c r="M159">
         <v>2.7</v>
       </c>
-      <c r="M159">
+      <c r="N159">
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>11</v>
       </c>
@@ -7921,17 +8403,20 @@
       <c r="J160" t="s">
         <v>246</v>
       </c>
-      <c r="K160" t="s">
+      <c r="K160">
+        <v>3</v>
+      </c>
+      <c r="L160" t="s">
         <v>250</v>
       </c>
-      <c r="L160">
+      <c r="M160">
         <v>6.5</v>
       </c>
-      <c r="M160">
+      <c r="N160">
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>3</v>
       </c>
@@ -7962,17 +8447,20 @@
       <c r="J161" t="s">
         <v>246</v>
       </c>
-      <c r="K161" t="s">
+      <c r="K161">
+        <v>3</v>
+      </c>
+      <c r="L161" t="s">
         <v>250</v>
       </c>
-      <c r="L161">
+      <c r="M161">
         <v>16.3</v>
       </c>
-      <c r="M161">
+      <c r="N161">
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>11</v>
       </c>
@@ -8003,17 +8491,20 @@
       <c r="J162" t="s">
         <v>246</v>
       </c>
-      <c r="K162" t="s">
+      <c r="K162">
+        <v>3</v>
+      </c>
+      <c r="L162" t="s">
         <v>250</v>
       </c>
-      <c r="L162">
+      <c r="M162">
         <v>3.8</v>
       </c>
-      <c r="M162">
+      <c r="N162">
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>7</v>
       </c>
@@ -8044,17 +8535,20 @@
       <c r="J163" t="s">
         <v>246</v>
       </c>
-      <c r="K163" t="s">
+      <c r="K163">
+        <v>3</v>
+      </c>
+      <c r="L163" t="s">
         <v>250</v>
       </c>
-      <c r="L163">
+      <c r="M163">
         <v>11.9</v>
       </c>
-      <c r="M163">
+      <c r="N163">
         <v>3</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>10</v>
       </c>
@@ -8085,17 +8579,20 @@
       <c r="J164" t="s">
         <v>246</v>
       </c>
-      <c r="K164" t="s">
+      <c r="K164">
+        <v>3</v>
+      </c>
+      <c r="L164" t="s">
         <v>250</v>
       </c>
-      <c r="L164">
+      <c r="M164">
         <v>6.9</v>
       </c>
-      <c r="M164">
+      <c r="N164">
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>11</v>
       </c>
@@ -8126,17 +8623,20 @@
       <c r="J165" t="s">
         <v>246</v>
       </c>
-      <c r="K165" t="s">
+      <c r="K165">
+        <v>3</v>
+      </c>
+      <c r="L165" t="s">
         <v>250</v>
       </c>
-      <c r="L165">
+      <c r="M165">
         <v>3.8</v>
       </c>
-      <c r="M165">
+      <c r="N165">
         <v>3</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>10</v>
       </c>
@@ -8167,17 +8667,20 @@
       <c r="J166" t="s">
         <v>246</v>
       </c>
-      <c r="K166" t="s">
+      <c r="K166">
+        <v>3</v>
+      </c>
+      <c r="L166" t="s">
         <v>250</v>
       </c>
-      <c r="L166">
+      <c r="M166">
         <v>5.7</v>
       </c>
-      <c r="M166">
+      <c r="N166">
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -8188,7 +8691,7 @@
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -8199,7 +8702,7 @@
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -8210,7 +8713,7 @@
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -8221,7 +8724,7 @@
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -8232,7 +8735,7 @@
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -8243,7 +8746,7 @@
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -8254,7 +8757,7 @@
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -8265,7 +8768,7 @@
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -8276,7 +8779,7 @@
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
